--- a/刷题时间表.xlsx
+++ b/刷题时间表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\algorithm\traning\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4EBCCD-C1B7-4930-8C39-A7D0292231D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9840"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>题目</t>
   </si>
@@ -71,7 +77,7 @@
         <sz val="12"/>
         <color rgb="FF4A4A4A"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>[142]</t>
     </r>
@@ -89,7 +95,7 @@
         <sz val="12"/>
         <color rgb="FF4A4A4A"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> II</t>
     </r>
@@ -186,19 +192,17 @@
   </si>
   <si>
     <t>[47]全排列 II</t>
+  </si>
+  <si>
+    <t>存储</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,13 +228,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF4A4A4A"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -239,351 +243,27 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF4A4A4A"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -591,251 +271,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -859,61 +297,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1200,24 +594,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.625" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1237,7 +631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1248,7 +642,7 @@
         <v>20210129</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1262,7 +656,7 @@
         <v>20210119</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:4">
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1276,7 +670,7 @@
         <v>20210130</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:4">
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1290,7 +684,7 @@
         <v>20210130</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:4">
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1304,7 +698,7 @@
         <v>20210130</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:4">
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1318,7 +712,7 @@
         <v>20210130</v>
       </c>
     </row>
-    <row r="8" ht="15" spans="1:4">
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1332,7 +726,7 @@
         <v>20210130</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="1:4">
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -1346,7 +740,7 @@
         <v>20210130</v>
       </c>
     </row>
-    <row r="10" ht="15" spans="1:3">
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -1357,7 +751,7 @@
         <v>20210121</v>
       </c>
     </row>
-    <row r="11" ht="15" spans="1:3">
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -1368,7 +762,7 @@
         <v>20210121</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="1:3">
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
@@ -1379,7 +773,7 @@
         <v>20210121</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:3">
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -1390,7 +784,7 @@
         <v>20210123</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1401,7 +795,7 @@
         <v>20210123</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1412,7 +806,7 @@
         <v>20210124</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1423,7 +817,7 @@
         <v>20210124</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:3">
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -1434,7 +828,7 @@
         <v>20210124</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1445,7 +839,7 @@
         <v>20210124</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1456,7 +850,7 @@
         <v>20210124</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1467,7 +861,7 @@
         <v>20210124</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1478,7 +872,7 @@
         <v>20210125</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1489,7 +883,7 @@
         <v>20210125</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1500,7 +894,7 @@
         <v>20210125</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1511,7 +905,7 @@
         <v>20210126</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1522,7 +916,7 @@
         <v>20210126</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1533,7 +927,7 @@
         <v>20210126</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1544,7 +938,7 @@
         <v>20210126</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1555,7 +949,7 @@
         <v>20210126</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1566,7 +960,7 @@
         <v>20210126</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1577,7 +971,7 @@
         <v>20210129</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1588,7 +982,7 @@
         <v>20210129</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1599,7 +993,7 @@
         <v>20210129</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1609,8 +1003,11 @@
       <c r="C33" s="1">
         <v>20210129</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="E33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1621,7 +1018,7 @@
         <v>20210129</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1632,7 +1029,7 @@
         <v>20210129</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1643,7 +1040,7 @@
         <v>20210129</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -1654,7 +1051,7 @@
         <v>20210129</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -1665,7 +1062,7 @@
         <v>20210129</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -1673,7 +1070,7 @@
         <v>20210130</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -1681,7 +1078,7 @@
         <v>20210130</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1689,7 +1086,7 @@
         <v>20210130</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1697,7 +1094,7 @@
         <v>20210131</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -1706,42 +1103,36 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/刷题时间表.xlsx
+++ b/刷题时间表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>题目</t>
   </si>
@@ -187,18 +187,78 @@
   <si>
     <t>[47]全排列 II</t>
   </si>
+  <si>
+    <t>[剑指 Offer 33]二叉搜索树的后序遍历序列</t>
+  </si>
+  <si>
+    <t>[127]单词接龙</t>
+  </si>
+  <si>
+    <t>[515]在每个树行中找最大值</t>
+  </si>
+  <si>
+    <t>[433]最小基因变化</t>
+  </si>
+  <si>
+    <t>[102]二叉树的层序遍历</t>
+  </si>
+  <si>
+    <t>[50]Pow(x, n)</t>
+  </si>
+  <si>
+    <t>子集</t>
+  </si>
+  <si>
+    <t>[169]多数元素</t>
+  </si>
+  <si>
+    <t>[17]电话号码的字母组合</t>
+  </si>
+  <si>
+    <t>[51]N 皇后</t>
+  </si>
+  <si>
+    <t>岛屿数量</t>
+  </si>
+  <si>
+    <t>扫雷游戏</t>
+  </si>
+  <si>
+    <t>[322]零钱兑换</t>
+  </si>
+  <si>
+    <t>[860]柠檬水找零</t>
+  </si>
+  <si>
+    <t>[122]买卖股票的最佳时机 II</t>
+  </si>
+  <si>
+    <t>分发饼干</t>
+  </si>
+  <si>
+    <t>模拟行走机器人</t>
+  </si>
+  <si>
+    <t>[55]跳跃游戏</t>
+  </si>
+  <si>
+    <t>[45]跳跃游戏 II</t>
+  </si>
+  <si>
+    <t>x 的平方根</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,6 +299,27 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF303030"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -247,30 +328,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -290,26 +373,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -321,21 +388,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -344,8 +396,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,17 +420,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,6 +435,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF4A4A4A"/>
       <name val="宋体"/>
@@ -398,37 +464,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,7 +608,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,133 +644,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,6 +673,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -626,25 +701,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,17 +736,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,149 +763,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -856,6 +922,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1206,15 +1278,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="33.625" customWidth="1"/>
+    <col min="2" max="3" width="9.375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1665,20 +1738,26 @@
         <v>20210129</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>43</v>
       </c>
       <c r="B39" s="1">
         <v>20210130</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39" s="6">
+        <v>20210203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>44</v>
       </c>
       <c r="B40" s="1">
         <v>20210130</v>
+      </c>
+      <c r="C40" s="6">
+        <v>20210203</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1703,6 +1782,166 @@
       </c>
       <c r="B43" s="1">
         <v>20210131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="1">
+        <v>20210131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="6">
+        <v>20210202</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="6">
+        <v>20210202</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="6">
+        <v>20210202</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="6">
+        <v>20210202</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="6">
+        <v>20210203</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="6">
+        <v>20210203</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="6">
+        <v>20210203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="6">
+        <v>20210203</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="6">
+        <v>20210203</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="6">
+        <v>20210204</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="6">
+        <v>20210204</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="6">
+        <v>20210205</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="6">
+        <v>20210205</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="6">
+        <v>20210205</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="6">
+        <v>20210206</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" s="6">
+        <v>20210206</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" s="6">
+        <v>20210206</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" s="6">
+        <v>20210206</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="6">
+        <v>20210206</v>
       </c>
     </row>
   </sheetData>

--- a/刷题时间表.xlsx
+++ b/刷题时间表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>题目</t>
   </si>
@@ -247,16 +247,19 @@
   <si>
     <t>x 的平方根</t>
   </si>
+  <si>
+    <t>[33]搜索旋转排序数组</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -306,6 +309,35 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -314,21 +346,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,52 +414,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -398,15 +424,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,21 +439,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -464,19 +467,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,163 +623,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,6 +658,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -676,8 +694,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,37 +734,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -739,8 +742,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,145 +766,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1278,10 +1281,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1942,6 +1945,14 @@
       </c>
       <c r="B63" s="6">
         <v>20210206</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="6">
+        <v>20210207</v>
       </c>
     </row>
   </sheetData>

--- a/刷题时间表.xlsx
+++ b/刷题时间表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\algorithm\traning\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFB6B50-BAC0-47FA-A716-528CFD64E1B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9840"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>题目</t>
   </si>
@@ -71,7 +77,7 @@
         <sz val="12"/>
         <color rgb="FF4A4A4A"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>[142]</t>
     </r>
@@ -89,7 +95,7 @@
         <sz val="12"/>
         <color rgb="FF4A4A4A"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> II</t>
     </r>
@@ -179,89 +185,130 @@
     <t>[77]组合</t>
   </si>
   <si>
+    <t>[46]全排列</t>
+  </si>
+  <si>
+    <t>[47]全排列 II</t>
+  </si>
+  <si>
+    <t>[127]单词接龙</t>
+  </si>
+  <si>
+    <t>[515]在每个树行中找最大值</t>
+  </si>
+  <si>
+    <t>[433]最小基因变化</t>
+  </si>
+  <si>
+    <t>[102]二叉树的层序遍历</t>
+  </si>
+  <si>
+    <t>[50]Pow(x, n)</t>
+  </si>
+  <si>
+    <t>子集</t>
+  </si>
+  <si>
+    <t>[169]多数元素</t>
+  </si>
+  <si>
+    <t>[17]电话号码的字母组合</t>
+  </si>
+  <si>
+    <t>[51]N 皇后</t>
+  </si>
+  <si>
+    <t>岛屿数量</t>
+  </si>
+  <si>
+    <t>扫雷游戏</t>
+  </si>
+  <si>
+    <t>[322]零钱兑换</t>
+  </si>
+  <si>
+    <t>[860]柠檬水找零</t>
+  </si>
+  <si>
+    <t>[122]买卖股票的最佳时机 II</t>
+  </si>
+  <si>
+    <t>分发饼干</t>
+  </si>
+  <si>
+    <t>模拟行走机器人</t>
+  </si>
+  <si>
+    <t>[55]跳跃游戏</t>
+  </si>
+  <si>
+    <t>[45]跳跃游戏 II</t>
+  </si>
+  <si>
+    <t>x 的平方根</t>
+  </si>
+  <si>
+    <t>[33]搜索旋转排序数组</t>
+  </si>
+  <si>
+    <t>[62]不同路径</t>
+  </si>
+  <si>
+    <t>[63]不同路径 II</t>
+  </si>
+  <si>
     <t>[105]从前序与中序遍历序列构造二叉树</t>
-  </si>
-  <si>
-    <t>[46]全排列</t>
-  </si>
-  <si>
-    <t>[47]全排列 II</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>[剑指 Offer 33]二叉搜索树的后序遍历序列</t>
-  </si>
-  <si>
-    <t>[127]单词接龙</t>
-  </si>
-  <si>
-    <t>[515]在每个树行中找最大值</t>
-  </si>
-  <si>
-    <t>[433]最小基因变化</t>
-  </si>
-  <si>
-    <t>[102]二叉树的层序遍历</t>
-  </si>
-  <si>
-    <t>[50]Pow(x, n)</t>
-  </si>
-  <si>
-    <t>子集</t>
-  </si>
-  <si>
-    <t>[169]多数元素</t>
-  </si>
-  <si>
-    <t>[17]电话号码的字母组合</t>
-  </si>
-  <si>
-    <t>[51]N 皇后</t>
-  </si>
-  <si>
-    <t>岛屿数量</t>
-  </si>
-  <si>
-    <t>扫雷游戏</t>
-  </si>
-  <si>
-    <t>[322]零钱兑换</t>
-  </si>
-  <si>
-    <t>[860]柠檬水找零</t>
-  </si>
-  <si>
-    <t>[122]买卖股票的最佳时机 II</t>
-  </si>
-  <si>
-    <t>分发饼干</t>
-  </si>
-  <si>
-    <t>模拟行走机器人</t>
-  </si>
-  <si>
-    <t>[55]跳跃游戏</t>
-  </si>
-  <si>
-    <t>[45]跳跃游戏 II</t>
-  </si>
-  <si>
-    <t>x 的平方根</t>
-  </si>
-  <si>
-    <t>[33]搜索旋转排序数组</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>最长公共子序列</t>
+  </si>
+  <si>
+    <t>[53]最大子序和</t>
+  </si>
+  <si>
+    <t>[152]乘积最大子数组</t>
+  </si>
+  <si>
+    <t>[213]打家劫舍 II</t>
+  </si>
+  <si>
+    <t>[123]买卖股票的最佳时机 III</t>
+  </si>
+  <si>
+    <t>[198]打家劫舍</t>
+  </si>
+  <si>
+    <t>[121]买卖股票的最佳时机</t>
+  </si>
+  <si>
+    <t>[64]最小路径和</t>
+  </si>
+  <si>
+    <t>[91]解码方法</t>
+  </si>
+  <si>
+    <t>[621]任务调度器</t>
+  </si>
+  <si>
+    <t>[647]回文子串</t>
+  </si>
+  <si>
+    <t>[32]最长有效括号</t>
+  </si>
+  <si>
+    <t>[72]编辑距离</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,13 +334,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF4A4A4A"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -308,351 +355,43 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF4A4A4A"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF303030"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF303030"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -660,255 +399,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -933,62 +430,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1275,25 +734,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.625" customWidth="1"/>
-    <col min="2" max="3" width="9.375"/>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="2" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1313,7 +772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1324,7 +783,7 @@
         <v>20210129</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1338,7 +797,7 @@
         <v>20210119</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:4">
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1352,7 +811,7 @@
         <v>20210130</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:4">
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1366,7 +825,7 @@
         <v>20210130</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:4">
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1380,7 +839,7 @@
         <v>20210130</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:4">
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1394,7 +853,7 @@
         <v>20210130</v>
       </c>
     </row>
-    <row r="8" ht="15" spans="1:4">
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1408,7 +867,7 @@
         <v>20210130</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="1:4">
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -1422,7 +881,7 @@
         <v>20210130</v>
       </c>
     </row>
-    <row r="10" ht="15" spans="1:3">
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -1433,7 +892,7 @@
         <v>20210121</v>
       </c>
     </row>
-    <row r="11" ht="15" spans="1:3">
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -1444,7 +903,7 @@
         <v>20210121</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="1:3">
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
@@ -1455,7 +914,7 @@
         <v>20210121</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:3">
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -1466,7 +925,7 @@
         <v>20210123</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1477,7 +936,7 @@
         <v>20210123</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1488,7 +947,7 @@
         <v>20210124</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1499,7 +958,7 @@
         <v>20210124</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:3">
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -1510,7 +969,7 @@
         <v>20210124</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1521,7 +980,7 @@
         <v>20210124</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1532,7 +991,7 @@
         <v>20210124</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1543,7 +1002,7 @@
         <v>20210124</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1554,7 +1013,7 @@
         <v>20210125</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1565,7 +1024,7 @@
         <v>20210125</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1576,7 +1035,7 @@
         <v>20210125</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1587,7 +1046,7 @@
         <v>20210126</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1598,7 +1057,7 @@
         <v>20210126</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1609,7 +1068,7 @@
         <v>20210126</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1620,7 +1079,7 @@
         <v>20210126</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1631,7 +1090,7 @@
         <v>20210126</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1642,7 +1101,7 @@
         <v>20210126</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1653,7 +1112,7 @@
         <v>20210129</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1664,7 +1123,7 @@
         <v>20210129</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1675,7 +1134,7 @@
         <v>20210129</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1686,7 +1145,7 @@
         <v>20210129</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1697,7 +1156,7 @@
         <v>20210129</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1708,7 +1167,7 @@
         <v>20210129</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1719,7 +1178,7 @@
         <v>20210129</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -1730,7 +1189,7 @@
         <v>20210129</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -1741,7 +1200,7 @@
         <v>20210129</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -1752,7 +1211,7 @@
         <v>20210203</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -1763,235 +1222,370 @@
         <v>20210203</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="B41" s="1">
         <v>20210130</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41" s="1">
+        <v>20210211</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" s="1">
         <v>20210131</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42" s="1">
+        <v>20210211</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" s="1">
         <v>20210131</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="7" t="s">
-        <v>48</v>
+      <c r="C43" s="1">
+        <v>20210211</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="B44" s="1">
         <v>20210131</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44" s="1">
+        <v>20210211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B45" s="6">
         <v>20210202</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B46" s="6">
         <v>20210202</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B47" s="6">
         <v>20210202</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B48" s="6">
         <v>20210202</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B49" s="6">
         <v>20210203</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B50" s="6">
         <v>20210203</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B51" s="6">
         <v>20210203</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B52" s="6">
         <v>20210203</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B53" s="6">
         <v>20210203</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B54" s="6">
         <v>20210204</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B55" s="6">
         <v>20210204</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B56" s="6">
         <v>20210205</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56">
+        <v>20200212</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B57" s="6">
         <v>20210205</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B58" s="6">
         <v>20210205</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B59" s="6">
         <v>20210206</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B60" s="6">
         <v>20210206</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B61" s="6">
         <v>20210206</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B62" s="6">
         <v>20210206</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B63" s="6">
         <v>20210206</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B64" s="6">
         <v>20210207</v>
       </c>
     </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" s="6">
+        <v>20210209</v>
+      </c>
+      <c r="C65" s="6">
+        <v>20210212</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" s="6">
+        <v>20210209</v>
+      </c>
+      <c r="C66" s="6">
+        <v>20210212</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" s="6">
+        <v>20210212</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" s="6">
+        <v>20210212</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" s="6">
+        <v>20210212</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" s="6">
+        <v>20210215</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" s="6">
+        <v>20210215</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" s="6">
+        <v>20210215</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" s="6">
+        <v>20210215</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" s="6">
+        <v>20210215</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" s="6">
+        <v>20210215</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" s="6">
+        <v>20210220</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" s="6">
+        <v>20210220</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" s="6">
+        <v>20210220</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" s="6">
+        <v>20210220</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/刷题时间表.xlsx
+++ b/刷题时间表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\algorithm\traning\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFB6B50-BAC0-47FA-A716-528CFD64E1B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21600" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>题目</t>
   </si>
@@ -77,7 +71,7 @@
         <sz val="12"/>
         <color rgb="FF4A4A4A"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>[142]</t>
     </r>
@@ -95,7 +89,7 @@
         <sz val="12"/>
         <color rgb="FF4A4A4A"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> II</t>
     </r>
@@ -185,12 +179,18 @@
     <t>[77]组合</t>
   </si>
   <si>
+    <t>[105]从前序与中序遍历序列构造二叉树</t>
+  </si>
+  <si>
     <t>[46]全排列</t>
   </si>
   <si>
     <t>[47]全排列 II</t>
   </si>
   <si>
+    <t>[剑指 Offer 33]二叉搜索树的后序遍历序列</t>
+  </si>
+  <si>
     <t>[127]单词接龙</t>
   </si>
   <si>
@@ -257,14 +257,6 @@
     <t>[63]不同路径 II</t>
   </si>
   <si>
-    <t>[105]从前序与中序遍历序列构造二叉树</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>[剑指 Offer 33]二叉搜索树的后序遍历序列</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>最长公共子序列</t>
   </si>
   <si>
@@ -302,13 +294,25 @@
   </si>
   <si>
     <t>[72]编辑距离</t>
+  </si>
+  <si>
+    <t>[212]单词搜索 II</t>
+  </si>
+  <si>
+    <t>[208]实现 Trie (前缀树)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,13 +338,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF4A4A4A"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -355,43 +359,364 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF303030"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF303030"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF4A4A4A"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF303030"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF303030"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -399,9 +724,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -430,24 +997,68 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -734,25 +1345,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" customWidth="1"/>
-    <col min="2" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.6666666666667" customWidth="1"/>
+    <col min="2" max="3" width="9.55833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -772,7 +1383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -783,7 +1394,7 @@
         <v>20210129</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -797,7 +1408,7 @@
         <v>20210119</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="4" ht="14.25" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -811,7 +1422,7 @@
         <v>20210130</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" ht="14.25" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -825,7 +1436,7 @@
         <v>20210130</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" ht="14.25" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -839,7 +1450,7 @@
         <v>20210130</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" ht="14.25" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -853,7 +1464,7 @@
         <v>20210130</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" spans="1:4">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -867,7 +1478,7 @@
         <v>20210130</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" ht="15" spans="1:4">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -881,7 +1492,7 @@
         <v>20210130</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" ht="15" spans="1:3">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -892,7 +1503,7 @@
         <v>20210121</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" ht="15" spans="1:3">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -903,7 +1514,7 @@
         <v>20210121</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="12" ht="15" spans="1:3">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
@@ -914,7 +1525,7 @@
         <v>20210121</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="13" ht="14.25" spans="1:3">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -925,7 +1536,7 @@
         <v>20210123</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -936,7 +1547,7 @@
         <v>20210123</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -947,7 +1558,7 @@
         <v>20210124</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -958,7 +1569,7 @@
         <v>20210124</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="17" ht="14.25" spans="1:3">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -969,7 +1580,7 @@
         <v>20210124</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -980,7 +1591,7 @@
         <v>20210124</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -991,7 +1602,7 @@
         <v>20210124</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1002,7 +1613,7 @@
         <v>20210124</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1013,7 +1624,7 @@
         <v>20210125</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1024,7 +1635,7 @@
         <v>20210125</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1035,7 +1646,7 @@
         <v>20210125</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1046,7 +1657,7 @@
         <v>20210126</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1057,7 +1668,7 @@
         <v>20210126</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1068,7 +1679,7 @@
         <v>20210126</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1079,7 +1690,7 @@
         <v>20210126</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1090,7 +1701,7 @@
         <v>20210126</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1101,7 +1712,7 @@
         <v>20210126</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1112,7 +1723,7 @@
         <v>20210129</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1123,7 +1734,7 @@
         <v>20210129</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1134,7 +1745,7 @@
         <v>20210129</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1145,7 +1756,7 @@
         <v>20210129</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1156,7 +1767,7 @@
         <v>20210129</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1167,7 +1778,7 @@
         <v>20210129</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1178,7 +1789,7 @@
         <v>20210129</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -1189,7 +1800,7 @@
         <v>20210129</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -1200,7 +1811,7 @@
         <v>20210129</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -1211,7 +1822,7 @@
         <v>20210203</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -1222,9 +1833,9 @@
         <v>20210203</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="B41" s="1">
         <v>20210130</v>
@@ -1233,9 +1844,9 @@
         <v>20210211</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B42" s="1">
         <v>20210131</v>
@@ -1244,9 +1855,9 @@
         <v>20210211</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B43" s="1">
         <v>20210131</v>
@@ -1255,9 +1866,9 @@
         <v>20210211</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
-        <v>70</v>
+    <row r="44" spans="1:3">
+      <c r="A44" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="B44" s="1">
         <v>20210131</v>
@@ -1266,97 +1877,97 @@
         <v>20210211</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45" s="6">
         <v>20210202</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46" s="6">
         <v>20210202</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47" s="6">
         <v>20210202</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48" s="6">
         <v>20210202</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49" s="6">
         <v>20210203</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50" s="6">
         <v>20210203</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51" s="6">
         <v>20210203</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52" s="6">
         <v>20210203</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
-        <v>55</v>
+    <row r="53" spans="1:2">
+      <c r="A53" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="B53" s="6">
         <v>20210203</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54" s="6">
         <v>20210204</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55" s="6">
         <v>20210204</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56" s="6">
         <v>20210205</v>
@@ -1365,73 +1976,73 @@
         <v>20200212</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57" s="6">
         <v>20210205</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58" s="6">
         <v>20210205</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59" s="6">
         <v>20210206</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60" s="6">
         <v>20210206</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
-        <v>63</v>
+    <row r="61" spans="1:2">
+      <c r="A61" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="B61" s="6">
         <v>20210206</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
-        <v>64</v>
+    <row r="62" spans="1:2">
+      <c r="A62" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="B62" s="6">
         <v>20210206</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63" s="6">
         <v>20210206</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64" s="6">
         <v>20210207</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
-        <v>67</v>
+    <row r="65" spans="1:3">
+      <c r="A65" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="B65" s="6">
         <v>20210209</v>
@@ -1440,9 +2051,9 @@
         <v>20210212</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
-        <v>68</v>
+    <row r="66" spans="1:3">
+      <c r="A66" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="B66" s="6">
         <v>20210209</v>
@@ -1451,7 +2062,7 @@
         <v>20210212</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -1459,7 +2070,7 @@
         <v>20210212</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -1467,7 +2078,7 @@
         <v>20210212</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -1475,7 +2086,7 @@
         <v>20210212</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -1483,7 +2094,7 @@
         <v>20210215</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -1491,7 +2102,7 @@
         <v>20210215</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -1499,7 +2110,7 @@
         <v>20210215</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -1507,7 +2118,7 @@
         <v>20210215</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -1515,7 +2126,7 @@
         <v>20210215</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -1523,23 +2134,29 @@
         <v>20210215</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>80</v>
       </c>
       <c r="B76" s="6">
         <v>20210220</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C76" s="6">
+        <v>20210222</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>81</v>
       </c>
       <c r="B77" s="6">
         <v>20210220</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C77" s="6">
+        <v>20210222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -1547,7 +2164,7 @@
         <v>20210220</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -1555,37 +2172,59 @@
         <v>20210220</v>
       </c>
     </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" s="6">
+        <v>20210222</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" s="6">
+        <v>20210222</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/刷题时间表.xlsx
+++ b/刷题时间表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
   <si>
     <t>题目</t>
   </si>
@@ -301,18 +301,36 @@
   <si>
     <t>[208]实现 Trie (前缀树)</t>
   </si>
+  <si>
+    <t>[191]位1的个数</t>
+  </si>
+  <si>
+    <t>[231]2的幂</t>
+  </si>
+  <si>
+    <t>[190]颠倒二进制位</t>
+  </si>
+  <si>
+    <t>[52]N皇后 II</t>
+  </si>
+  <si>
+    <t>[338]比特位计数</t>
+  </si>
+  <si>
+    <t>[547]省份数量</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,24 +381,94 @@
       <color rgb="FF303030"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF303030"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,6 +482,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -402,44 +506,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -449,73 +515,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF4A4A4A"/>
       <name val="宋体"/>
@@ -531,187 +543,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,6 +734,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -751,21 +774,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -803,6 +811,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -811,17 +834,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -830,10 +842,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -842,19 +854,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -863,112 +875,112 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1000,8 +1012,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1351,10 +1363,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="H79" sqref="H79"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1942,7 +1954,7 @@
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="7" t="s">
         <v>57</v>
       </c>
       <c r="B53" s="6">
@@ -2009,7 +2021,7 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B61" s="6">
@@ -2017,7 +2029,7 @@
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B62" s="6">
@@ -2041,7 +2053,7 @@
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="8" t="s">
         <v>69</v>
       </c>
       <c r="B65" s="6">
@@ -2052,7 +2064,7 @@
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="8" t="s">
         <v>70</v>
       </c>
       <c r="B66" s="6">
@@ -2186,6 +2198,62 @@
       </c>
       <c r="B81" s="6">
         <v>20210222</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" s="9">
+        <v>20210227</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83" s="9">
+        <v>20210227</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84" s="9">
+        <v>20210227</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85" s="9">
+        <v>20210227</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86" s="9">
+        <v>20210227</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>57</v>
+      </c>
+      <c r="B87" s="9">
+        <v>20210227</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" s="9">
+        <v>20210228</v>
       </c>
     </row>
   </sheetData>
